--- a/test/output_mult.xlsx
+++ b/test/output_mult.xlsx
@@ -8,10 +8,14 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mountains" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Higher than 8500" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cities" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mountains Full" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mountains'!$A$1:$J$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Higher than 8500'!$A$1:$J$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cities'!$A$1:$D$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mountains Full'!$A$1:$M$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -27,7 +31,7 @@
     <numFmt numFmtId="168" formatCode="[&gt;=1000]#'##0.00;[&lt;1000]0.00"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,24 +48,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
+      <name val="Helvetica"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
-      <b val="1"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
+      <name val="Helvetica"/>
       <b val="1"/>
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -76,6 +76,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00eeeeee"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fffec8"/>
       </patternFill>
     </fill>
     <fill>
@@ -111,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -125,40 +130,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -197,7 +184,7 @@
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,7 +570,7 @@
     <col width="14.4" customWidth="1" style="6" min="7" max="7"/>
     <col width="15.6" customWidth="1" style="6" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="25.2" customWidth="1" style="7" min="10" max="10"/>
+    <col width="24" customWidth="1" style="7" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -675,47 +662,47 @@
         </is>
       </c>
       <c r="J2" s="14" t="n">
-        <v>0.8455408391869125</v>
+        <v>0.195650212136614</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>K2</t>
         </is>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="10" t="n">
         <v>8611</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="11" t="n">
         <v>28251</v>
       </c>
-      <c r="D3" s="18" t="d">
+      <c r="D3" s="12" t="d">
         <v>1954-07-31T00:00:00</v>
       </c>
-      <c r="E3" s="15" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G3" s="19" t="n">
+      <c r="G3" s="13" t="n">
         <v>27.9882</v>
       </c>
-      <c r="H3" s="19" t="n">
+      <c r="H3" s="13" t="n">
         <v>76.5133</v>
       </c>
-      <c r="I3" s="15" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J3" s="20" t="n">
-        <v>0.005903548330655428</v>
+      <c r="J3" s="14" t="n">
+        <v>0.2290265915225284</v>
       </c>
     </row>
     <row r="4">
@@ -755,887 +742,887 @@
         </is>
       </c>
       <c r="J4" s="14" t="n">
-        <v>0.6609125460036304</v>
+        <v>0.756128628893608</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Lhotse</t>
         </is>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="10" t="n">
         <v>8516</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="11" t="n">
         <v>27940</v>
       </c>
-      <c r="D5" s="18" t="d">
+      <c r="D5" s="12" t="d">
         <v>1956-05-18T00:00:00</v>
       </c>
-      <c r="E5" s="15" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="G5" s="13" t="n">
         <v>27.9884</v>
       </c>
-      <c r="H5" s="19" t="n">
+      <c r="H5" s="13" t="n">
         <v>86.93300000000001</v>
       </c>
-      <c r="I5" s="15" t="inlineStr">
+      <c r="I5" s="9" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J5" s="20" t="n">
-        <v>0.3021757716585873</v>
+      <c r="J5" s="14" t="n">
+        <v>0.4283108897333244</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="inlineStr">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Makalu</t>
         </is>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="16" t="n">
         <v>8485</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="17" t="n">
         <v>27838</v>
       </c>
-      <c r="D6" s="24" t="d">
+      <c r="D6" s="18" t="d">
         <v>1955-05-15T00:00:00</v>
       </c>
-      <c r="E6" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F6" s="21" t="inlineStr">
+      <c r="E6" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F6" s="15" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="19" t="n">
         <v>27.9885</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="19" t="n">
         <v>87.0883</v>
       </c>
-      <c r="I6" s="21" t="inlineStr">
+      <c r="I6" s="15" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J6" s="26" t="n">
-        <v>0.5879314499682721</v>
+      <c r="J6" s="20" t="n">
+        <v>0.3160585581391768</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="21" t="inlineStr">
         <is>
           <t>Cho Oyu</t>
         </is>
       </c>
-      <c r="B7" s="28" t="n">
+      <c r="B7" s="22" t="n">
         <v>8188</v>
       </c>
-      <c r="C7" s="29" t="n">
+      <c r="C7" s="23" t="n">
         <v>26864</v>
       </c>
-      <c r="D7" s="30" t="d">
+      <c r="D7" s="24" t="d">
         <v>1954-10-19T00:00:00</v>
       </c>
-      <c r="E7" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F7" s="27" t="inlineStr">
+      <c r="E7" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F7" s="21" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G7" s="31" t="n">
+      <c r="G7" s="25" t="n">
         <v>27.9886</v>
       </c>
-      <c r="H7" s="31" t="n">
+      <c r="H7" s="25" t="n">
         <v>86.66079999999999</v>
       </c>
-      <c r="I7" s="27" t="inlineStr">
+      <c r="I7" s="21" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J7" s="32" t="n">
-        <v>0.9967813009764577</v>
+      <c r="J7" s="26" t="n">
+        <v>0.09340220736345273</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="inlineStr">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t>Dhaulagiri I</t>
         </is>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="16" t="n">
         <v>8167</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C8" s="17" t="n">
         <v>26795</v>
       </c>
-      <c r="D8" s="24" t="d">
+      <c r="D8" s="18" t="d">
         <v>1960-05-13T00:00:00</v>
       </c>
-      <c r="E8" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F8" s="21" t="inlineStr">
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="inlineStr">
         <is>
           <t>Pokhara</t>
         </is>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="19" t="n">
         <v>27.9887</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="19" t="n">
         <v>83.4875</v>
       </c>
-      <c r="I8" s="21" t="inlineStr">
+      <c r="I8" s="15" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J8" s="26" t="n">
-        <v>0.7171302064814374</v>
+      <c r="J8" s="20" t="n">
+        <v>0.05867817535827813</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>Manaslu</t>
         </is>
       </c>
-      <c r="B9" s="28" t="n">
+      <c r="B9" s="22" t="n">
         <v>8163</v>
       </c>
-      <c r="C9" s="29" t="n">
+      <c r="C9" s="23" t="n">
         <v>26781</v>
       </c>
-      <c r="D9" s="30" t="d">
+      <c r="D9" s="24" t="d">
         <v>1956-05-09T00:00:00</v>
       </c>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="inlineStr">
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F9" s="21" t="inlineStr">
         <is>
           <t>Gorkha</t>
         </is>
       </c>
-      <c r="G9" s="31" t="n">
+      <c r="G9" s="25" t="n">
         <v>27.9888</v>
       </c>
-      <c r="H9" s="31" t="n">
+      <c r="H9" s="25" t="n">
         <v>84.55970000000001</v>
       </c>
-      <c r="I9" s="27" t="inlineStr">
+      <c r="I9" s="21" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J9" s="32" t="n">
-        <v>0.9444575489753664</v>
+      <c r="J9" s="26" t="n">
+        <v>0.1610091916786827</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="inlineStr">
+      <c r="A10" s="15" t="inlineStr">
         <is>
           <t>Nanga Parbat</t>
         </is>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="16" t="n">
         <v>8126</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="17" t="n">
         <v>26660</v>
       </c>
-      <c r="D10" s="24" t="d">
+      <c r="D10" s="18" t="d">
         <v>1953-07-03T00:00:00</v>
       </c>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F10" s="21" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="inlineStr">
         <is>
           <t>Gilgit</t>
         </is>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="19" t="n">
         <v>27.9889</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="19" t="n">
         <v>74.58920000000001</v>
       </c>
-      <c r="I10" s="21" t="inlineStr">
+      <c r="I10" s="15" t="inlineStr">
         <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="J10" s="26" t="n">
-        <v>0.4440205281606925</v>
+      <c r="J10" s="20" t="n">
+        <v>0.8013835278699959</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="inlineStr">
+      <c r="A11" s="21" t="inlineStr">
         <is>
           <t>Annapurna I</t>
         </is>
       </c>
-      <c r="B11" s="28" t="n">
+      <c r="B11" s="22" t="n">
         <v>8091</v>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="23" t="n">
         <v>26545</v>
       </c>
-      <c r="D11" s="30" t="d">
+      <c r="D11" s="24" t="d">
         <v>1950-06-03T00:00:00</v>
       </c>
-      <c r="E11" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F11" s="27" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
         <is>
           <t>Pokhara</t>
         </is>
       </c>
-      <c r="G11" s="31" t="n">
+      <c r="G11" s="25" t="n">
         <v>27.989</v>
       </c>
-      <c r="H11" s="31" t="n">
+      <c r="H11" s="25" t="n">
         <v>83.8203</v>
       </c>
-      <c r="I11" s="27" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J11" s="32" t="n">
-        <v>0.04880757941154334</v>
+      <c r="J11" s="26" t="n">
+        <v>0.3876381818585598</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="inlineStr">
+      <c r="A12" s="15" t="inlineStr">
         <is>
           <t>Gasherbrum I</t>
         </is>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="16" t="n">
         <v>8080</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="17" t="n">
         <v>26509</v>
       </c>
-      <c r="D12" s="24" t="d">
+      <c r="D12" s="18" t="d">
         <v>1958-07-05T00:00:00</v>
       </c>
-      <c r="E12" s="21" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F12" s="21" t="inlineStr">
+      <c r="F12" s="15" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="19" t="n">
         <v>27.9891</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="19" t="n">
         <v>76.6961</v>
       </c>
-      <c r="I12" s="21" t="inlineStr">
+      <c r="I12" s="15" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J12" s="26" t="n">
-        <v>0.5992821358496242</v>
+      <c r="J12" s="20" t="n">
+        <v>0.2642714729305405</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="inlineStr">
+      <c r="A13" s="21" t="inlineStr">
         <is>
           <t>Broad Peak</t>
         </is>
       </c>
-      <c r="B13" s="28" t="n">
+      <c r="B13" s="22" t="n">
         <v>8051</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="23" t="n">
         <v>26414</v>
       </c>
-      <c r="D13" s="30" t="d">
+      <c r="D13" s="24" t="d">
         <v>1957-06-09T00:00:00</v>
       </c>
-      <c r="E13" s="27" t="inlineStr">
+      <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F13" s="27" t="inlineStr">
+      <c r="F13" s="21" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G13" s="31" t="n">
+      <c r="G13" s="25" t="n">
         <v>27.9892</v>
       </c>
-      <c r="H13" s="31" t="n">
+      <c r="H13" s="25" t="n">
         <v>76.565</v>
       </c>
-      <c r="I13" s="27" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J13" s="32" t="n">
-        <v>0.9722928009371848</v>
+      <c r="J13" s="26" t="n">
+        <v>0.2653911570391548</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>Gasherbrum II</t>
         </is>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="16" t="n">
         <v>8035</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="17" t="n">
         <v>26362</v>
       </c>
-      <c r="D14" s="24" t="d">
+      <c r="D14" s="18" t="d">
         <v>1956-07-07T00:00:00</v>
       </c>
-      <c r="E14" s="21" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F14" s="21" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="19" t="n">
         <v>27.9893</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="19" t="n">
         <v>76.6533</v>
       </c>
-      <c r="I14" s="21" t="inlineStr">
+      <c r="I14" s="15" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J14" s="26" t="n">
-        <v>0.9147516158674294</v>
+      <c r="J14" s="20" t="n">
+        <v>0.723555809474846</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="inlineStr">
+      <c r="A15" s="21" t="inlineStr">
         <is>
           <t>Shishapangma</t>
         </is>
       </c>
-      <c r="B15" s="28" t="n">
+      <c r="B15" s="22" t="n">
         <v>8027</v>
       </c>
-      <c r="C15" s="29" t="n">
+      <c r="C15" s="23" t="n">
         <v>26335</v>
       </c>
-      <c r="D15" s="30" t="d">
+      <c r="D15" s="24" t="d">
         <v>1964-05-02T00:00:00</v>
       </c>
-      <c r="E15" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F15" s="27" t="inlineStr">
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G15" s="31" t="n">
+      <c r="G15" s="25" t="n">
         <v>27.9894</v>
       </c>
-      <c r="H15" s="31" t="n">
+      <c r="H15" s="25" t="n">
         <v>85.7792</v>
       </c>
-      <c r="I15" s="27" t="inlineStr">
+      <c r="I15" s="21" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="J15" s="32" t="n">
-        <v>0.2226262019234899</v>
+      <c r="J15" s="26" t="n">
+        <v>0.8162627963579147</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="inlineStr">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>Gyachung Kang</t>
         </is>
       </c>
-      <c r="B16" s="22" t="n">
+      <c r="B16" s="16" t="n">
         <v>7952</v>
       </c>
-      <c r="C16" s="23" t="n">
+      <c r="C16" s="17" t="n">
         <v>26089</v>
       </c>
-      <c r="D16" s="24" t="d">
+      <c r="D16" s="18" t="d">
         <v>1964-04-10T00:00:00</v>
       </c>
-      <c r="E16" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F16" s="21" t="inlineStr">
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="19" t="n">
         <v>27.9895</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="19" t="n">
         <v>86.74250000000001</v>
       </c>
-      <c r="I16" s="21" t="inlineStr">
+      <c r="I16" s="15" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J16" s="26" t="n">
-        <v>0.7357083669531733</v>
+      <c r="J16" s="20" t="n">
+        <v>0.4373928917187988</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="27" t="inlineStr">
+      <c r="A17" s="21" t="inlineStr">
         <is>
           <t>Annapurna II</t>
         </is>
       </c>
-      <c r="B17" s="28" t="n">
+      <c r="B17" s="22" t="n">
         <v>7937</v>
       </c>
-      <c r="C17" s="29" t="n">
+      <c r="C17" s="23" t="n">
         <v>26040</v>
       </c>
-      <c r="D17" s="30" t="d">
+      <c r="D17" s="24" t="d">
         <v>1960-05-17T00:00:00</v>
       </c>
-      <c r="E17" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F17" s="27" t="inlineStr">
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="inlineStr">
         <is>
           <t>Pokhara</t>
         </is>
       </c>
-      <c r="G17" s="31" t="n">
+      <c r="G17" s="25" t="n">
         <v>27.9896</v>
       </c>
-      <c r="H17" s="31" t="n">
+      <c r="H17" s="25" t="n">
         <v>84.1203</v>
       </c>
-      <c r="I17" s="27" t="inlineStr">
+      <c r="I17" s="21" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J17" s="32" t="n">
-        <v>0.2230409003474983</v>
+      <c r="J17" s="26" t="n">
+        <v>0.7477439431177361</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="inlineStr">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>Gasherbrum III</t>
         </is>
       </c>
-      <c r="B18" s="22" t="n">
+      <c r="B18" s="16" t="n">
         <v>7946</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="17" t="n">
         <v>26070</v>
       </c>
-      <c r="D18" s="24" t="d">
+      <c r="D18" s="18" t="d">
         <v>1975-08-11T00:00:00</v>
       </c>
-      <c r="E18" s="21" t="inlineStr">
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F18" s="21" t="inlineStr">
+      <c r="F18" s="15" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="19" t="n">
         <v>27.9897</v>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="19" t="n">
         <v>76.565</v>
       </c>
-      <c r="I18" s="21" t="inlineStr">
+      <c r="I18" s="15" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J18" s="26" t="n">
-        <v>0.1457618712190435</v>
+      <c r="J18" s="20" t="n">
+        <v>0.4340777249480395</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="27" t="inlineStr">
+      <c r="A19" s="21" t="inlineStr">
         <is>
           <t>Gasherbrum IV</t>
         </is>
       </c>
-      <c r="B19" s="28" t="n">
+      <c r="B19" s="22" t="n">
         <v>7932</v>
       </c>
-      <c r="C19" s="29" t="n">
+      <c r="C19" s="23" t="n">
         <v>26024</v>
       </c>
-      <c r="D19" s="30" t="d">
+      <c r="D19" s="24" t="d">
         <v>1958-08-06T00:00:00</v>
       </c>
-      <c r="E19" s="27" t="inlineStr">
+      <c r="E19" s="21" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F19" s="27" t="inlineStr">
+      <c r="F19" s="21" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G19" s="31" t="n">
+      <c r="G19" s="25" t="n">
         <v>27.9898</v>
       </c>
-      <c r="H19" s="31" t="n">
+      <c r="H19" s="25" t="n">
         <v>76.56829999999999</v>
       </c>
-      <c r="I19" s="27" t="inlineStr">
+      <c r="I19" s="21" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J19" s="32" t="n">
-        <v>0.4678635542811362</v>
+      <c r="J19" s="26" t="n">
+        <v>0.1832803466713171</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>Himalchuli</t>
         </is>
       </c>
-      <c r="B20" s="22" t="n">
+      <c r="B20" s="16" t="n">
         <v>7893</v>
       </c>
-      <c r="C20" s="23" t="n">
+      <c r="C20" s="17" t="n">
         <v>25896</v>
       </c>
-      <c r="D20" s="24" t="d">
+      <c r="D20" s="18" t="d">
         <v>1960-05-24T00:00:00</v>
       </c>
-      <c r="E20" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F20" s="21" t="inlineStr">
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F20" s="15" t="inlineStr">
         <is>
           <t>Gorkha</t>
         </is>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="19" t="n">
         <v>27.9899</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="19" t="n">
         <v>84.625</v>
       </c>
-      <c r="I20" s="21" t="inlineStr">
+      <c r="I20" s="15" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J20" s="26" t="n">
-        <v>0.6458986458330569</v>
+      <c r="J20" s="20" t="n">
+        <v>0.6294085854430137</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="27" t="inlineStr">
+      <c r="A21" s="21" t="inlineStr">
         <is>
           <t>Distaghil Sar</t>
         </is>
       </c>
-      <c r="B21" s="28" t="n">
+      <c r="B21" s="22" t="n">
         <v>7885</v>
       </c>
-      <c r="C21" s="29" t="n">
+      <c r="C21" s="23" t="n">
         <v>25869</v>
       </c>
-      <c r="D21" s="30" t="d">
+      <c r="D21" s="24" t="d">
         <v>1960-06-09T00:00:00</v>
       </c>
-      <c r="E21" s="27" t="inlineStr">
+      <c r="E21" s="21" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F21" s="27" t="inlineStr">
+      <c r="F21" s="21" t="inlineStr">
         <is>
           <t>Gilgit</t>
         </is>
       </c>
-      <c r="G21" s="31" t="n">
+      <c r="G21" s="25" t="n">
         <v>27.99</v>
       </c>
-      <c r="H21" s="31" t="n">
+      <c r="H21" s="25" t="n">
         <v>75.1833</v>
       </c>
-      <c r="I21" s="27" t="inlineStr">
+      <c r="I21" s="21" t="inlineStr">
         <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="J21" s="32" t="n">
-        <v>0.5658546148508842</v>
+      <c r="J21" s="26" t="n">
+        <v>0.6624074423254123</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="inlineStr">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>Ngadi Chuli</t>
         </is>
       </c>
-      <c r="B22" s="22" t="n">
+      <c r="B22" s="16" t="n">
         <v>7871</v>
       </c>
-      <c r="C22" s="23" t="n">
+      <c r="C22" s="17" t="n">
         <v>25823</v>
       </c>
-      <c r="D22" s="24" t="d">
+      <c r="D22" s="18" t="d">
         <v>1970-04-27T00:00:00</v>
       </c>
-      <c r="E22" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F22" s="21" t="inlineStr">
+      <c r="E22" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F22" s="15" t="inlineStr">
         <is>
           <t>Gorkha</t>
         </is>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="19" t="n">
         <v>27.9901</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="19" t="n">
         <v>84.62</v>
       </c>
-      <c r="I22" s="21" t="inlineStr">
+      <c r="I22" s="15" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J22" s="26" t="n">
-        <v>0.2972507682567649</v>
+      <c r="J22" s="20" t="n">
+        <v>0.2375736963489835</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="27" t="inlineStr">
+      <c r="A23" s="21" t="inlineStr">
         <is>
           <t>Nanda Devi</t>
         </is>
       </c>
-      <c r="B23" s="28" t="n">
+      <c r="B23" s="22" t="n">
         <v>7816</v>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C23" s="23" t="n">
         <v>25643</v>
       </c>
-      <c r="D23" s="30" t="d">
+      <c r="D23" s="24" t="d">
         <v>1936-08-29T00:00:00</v>
       </c>
-      <c r="E23" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F23" s="27" t="inlineStr">
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F23" s="21" t="inlineStr">
         <is>
           <t>Joshimath</t>
         </is>
       </c>
-      <c r="G23" s="31" t="n">
+      <c r="G23" s="25" t="n">
         <v>27.9902</v>
       </c>
-      <c r="H23" s="31" t="n">
+      <c r="H23" s="25" t="n">
         <v>79.9783</v>
       </c>
-      <c r="I23" s="27" t="inlineStr">
+      <c r="I23" s="21" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="J23" s="32" t="n">
-        <v>0.3484588986980496</v>
+      <c r="J23" s="26" t="n">
+        <v>0.4100941945991062</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="inlineStr">
+      <c r="A24" s="15" t="inlineStr">
         <is>
           <t>Masherbrum</t>
         </is>
       </c>
-      <c r="B24" s="22" t="n">
+      <c r="B24" s="16" t="n">
         <v>7821</v>
       </c>
-      <c r="C24" s="23" t="n">
+      <c r="C24" s="17" t="n">
         <v>25659</v>
       </c>
-      <c r="D24" s="24" t="d">
+      <c r="D24" s="18" t="d">
         <v>1960-07-06T00:00:00</v>
       </c>
-      <c r="E24" s="21" t="inlineStr">
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F24" s="21" t="inlineStr">
+      <c r="F24" s="15" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G24" s="25" t="n">
+      <c r="G24" s="19" t="n">
         <v>27.9903</v>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="19" t="n">
         <v>76.33329999999999</v>
       </c>
-      <c r="I24" s="21" t="inlineStr">
+      <c r="I24" s="15" t="inlineStr">
         <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="J24" s="26" t="n">
-        <v>0.8604760040412478</v>
+      <c r="J24" s="20" t="n">
+        <v>0.4495985376644718</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="27" t="inlineStr">
+      <c r="A25" s="21" t="inlineStr">
         <is>
           <t>Nanda Kot</t>
         </is>
       </c>
-      <c r="B25" s="28" t="n">
+      <c r="B25" s="22" t="n">
         <v>7861</v>
       </c>
-      <c r="C25" s="29" t="n">
+      <c r="C25" s="23" t="n">
         <v>25791</v>
       </c>
-      <c r="D25" s="30" t="d">
+      <c r="D25" s="24" t="d">
         <v>1931-06-02T00:00:00</v>
       </c>
-      <c r="E25" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F25" s="27" t="inlineStr">
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F25" s="21" t="inlineStr">
         <is>
           <t>Joshimath</t>
         </is>
       </c>
-      <c r="G25" s="31" t="n">
+      <c r="G25" s="25" t="n">
         <v>27.9904</v>
       </c>
-      <c r="H25" s="31" t="n">
+      <c r="H25" s="25" t="n">
         <v>80.02500000000001</v>
       </c>
-      <c r="I25" s="27" t="inlineStr">
+      <c r="I25" s="21" t="inlineStr">
         <is>
           <t>India</t>
         </is>
       </c>
-      <c r="J25" s="32" t="n">
-        <v>0.01857747418567579</v>
+      <c r="J25" s="26" t="n">
+        <v>0.2640043296186692</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="inlineStr">
+      <c r="A26" s="15" t="inlineStr">
         <is>
           <t>Rakaposhi</t>
         </is>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="16" t="n">
         <v>7788</v>
       </c>
-      <c r="C26" s="23" t="n">
+      <c r="C26" s="17" t="n">
         <v>25551</v>
       </c>
-      <c r="D26" s="24" t="d">
+      <c r="D26" s="18" t="d">
         <v>1958-06-25T00:00:00</v>
       </c>
-      <c r="E26" s="21" t="inlineStr">
+      <c r="E26" s="15" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F26" s="21" t="inlineStr">
+      <c r="F26" s="15" t="inlineStr">
         <is>
           <t>Gilgit</t>
         </is>
       </c>
-      <c r="G26" s="25" t="n">
+      <c r="G26" s="19" t="n">
         <v>27.9905</v>
       </c>
-      <c r="H26" s="25" t="n">
+      <c r="H26" s="19" t="n">
         <v>74.5167</v>
       </c>
-      <c r="I26" s="21" t="inlineStr">
+      <c r="I26" s="15" t="inlineStr">
         <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="J26" s="26" t="n">
-        <v>0.7922943102331964</v>
+      <c r="J26" s="20" t="n">
+        <v>0.2825609067326104</v>
       </c>
     </row>
   </sheetData>
@@ -1668,623 +1655,1819 @@
     <col width="14.4" customWidth="1" style="6" min="7" max="7"/>
     <col width="15.6" customWidth="1" style="6" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="25.2" customWidth="1" style="7" min="10" max="10"/>
+    <col width="24" customWidth="1" style="7" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="33" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>Metres</t>
         </is>
       </c>
-      <c r="C1" s="33" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>Feet</t>
         </is>
       </c>
-      <c r="D1" s="33" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>Ascension</t>
         </is>
       </c>
-      <c r="E1" s="33" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>Range</t>
         </is>
       </c>
-      <c r="F1" s="33" t="inlineStr">
+      <c r="F1" s="27" t="inlineStr">
         <is>
           <t>Closest City</t>
         </is>
       </c>
-      <c r="G1" s="33" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>Latitude</t>
         </is>
       </c>
-      <c r="H1" s="33" t="inlineStr">
+      <c r="H1" s="27" t="inlineStr">
         <is>
           <t>Longitude</t>
         </is>
       </c>
-      <c r="I1" s="33" t="inlineStr">
+      <c r="I1" s="27" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="J1" s="33" t="inlineStr">
+      <c r="J1" s="27" t="inlineStr">
         <is>
           <t>Preference</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="inlineStr">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>Mount Everest</t>
         </is>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="16" t="n">
         <v>8848</v>
       </c>
-      <c r="C2" s="22" t="n">
+      <c r="C2" s="16" t="n">
         <v>29029</v>
       </c>
-      <c r="D2" s="24" t="d">
+      <c r="D2" s="18" t="d">
         <v>1953-05-29T00:00:00</v>
       </c>
-      <c r="E2" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F2" s="21" t="inlineStr">
+      <c r="E2" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F2" s="15" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G2" s="25" t="n">
+      <c r="G2" s="19" t="n">
         <v>27.9881</v>
       </c>
-      <c r="H2" s="25" t="n">
+      <c r="H2" s="19" t="n">
         <v>86.925</v>
       </c>
-      <c r="I2" s="21" t="inlineStr">
+      <c r="I2" s="15" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J2" s="26" t="n">
-        <v>0.8455408391869125</v>
+      <c r="J2" s="20" t="n">
+        <v>0.195650212136614</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t>K2</t>
         </is>
       </c>
-      <c r="B3" s="28" t="n">
+      <c r="B3" s="22" t="n">
         <v>8611</v>
       </c>
-      <c r="C3" s="28" t="n">
+      <c r="C3" s="22" t="n">
         <v>28251</v>
       </c>
-      <c r="D3" s="30" t="d">
+      <c r="D3" s="24" t="d">
         <v>1954-07-31T00:00:00</v>
       </c>
-      <c r="E3" s="27" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F3" s="27" t="inlineStr">
+      <c r="F3" s="21" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G3" s="31" t="n">
+      <c r="G3" s="25" t="n">
         <v>27.9882</v>
       </c>
-      <c r="H3" s="31" t="n">
+      <c r="H3" s="25" t="n">
         <v>76.5133</v>
       </c>
-      <c r="I3" s="27" t="inlineStr">
+      <c r="I3" s="21" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J3" s="32" t="n">
-        <v>0.005903548330655428</v>
+      <c r="J3" s="26" t="n">
+        <v>0.2290265915225284</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="inlineStr">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>Kangchenjunga</t>
         </is>
       </c>
-      <c r="B4" s="22" t="n">
+      <c r="B4" s="16" t="n">
         <v>8586</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="16" t="n">
         <v>28169</v>
       </c>
-      <c r="D4" s="24" t="d">
+      <c r="D4" s="18" t="d">
         <v>1955-05-25T00:00:00</v>
       </c>
-      <c r="E4" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F4" s="21" t="inlineStr">
+      <c r="E4" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F4" s="15" t="inlineStr">
         <is>
           <t>Darjeeling</t>
         </is>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="19" t="n">
         <v>27.9883</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="19" t="n">
         <v>88.14749999999999</v>
       </c>
-      <c r="I4" s="21" t="inlineStr">
+      <c r="I4" s="15" t="inlineStr">
         <is>
           <t>Nepal/India</t>
         </is>
       </c>
-      <c r="J4" s="26" t="n">
-        <v>0.6609125460036304</v>
+      <c r="J4" s="20" t="n">
+        <v>0.756128628893608</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="inlineStr">
+      <c r="A5" s="21" t="inlineStr">
         <is>
           <t>Lhotse</t>
         </is>
       </c>
-      <c r="B5" s="28" t="n">
+      <c r="B5" s="22" t="n">
         <v>8516</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="22" t="n">
         <v>27940</v>
       </c>
-      <c r="D5" s="30" t="d">
+      <c r="D5" s="24" t="d">
         <v>1956-05-18T00:00:00</v>
       </c>
-      <c r="E5" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F5" s="27" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F5" s="21" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G5" s="31" t="n">
+      <c r="G5" s="25" t="n">
         <v>27.9884</v>
       </c>
-      <c r="H5" s="31" t="n">
+      <c r="H5" s="25" t="n">
         <v>86.93300000000001</v>
       </c>
-      <c r="I5" s="27" t="inlineStr">
+      <c r="I5" s="21" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J5" s="32" t="n">
-        <v>0.3021757716585873</v>
+      <c r="J5" s="26" t="n">
+        <v>0.4283108897333244</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="inlineStr">
+      <c r="A6" s="15" t="inlineStr">
         <is>
           <t>Makalu</t>
         </is>
       </c>
-      <c r="B6" s="22" t="n">
+      <c r="B6" s="16" t="n">
         <v>8485</v>
       </c>
-      <c r="C6" s="22" t="n">
+      <c r="C6" s="16" t="n">
         <v>27838</v>
       </c>
-      <c r="D6" s="24" t="d">
+      <c r="D6" s="18" t="d">
         <v>1955-05-15T00:00:00</v>
       </c>
-      <c r="E6" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F6" s="21" t="inlineStr">
+      <c r="E6" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F6" s="15" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="19" t="n">
         <v>27.9885</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="19" t="n">
         <v>87.0883</v>
       </c>
-      <c r="I6" s="21" t="inlineStr">
+      <c r="I6" s="15" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J6" s="26" t="n">
-        <v>0.5879314499682721</v>
+      <c r="J6" s="20" t="n">
+        <v>0.3160585581391768</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="inlineStr">
+      <c r="A7" s="21" t="inlineStr">
         <is>
           <t>Cho Oyu</t>
         </is>
       </c>
-      <c r="B7" s="28" t="n">
+      <c r="B7" s="22" t="n">
         <v>8188</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="22" t="n">
         <v>26864</v>
       </c>
-      <c r="D7" s="30" t="d">
+      <c r="D7" s="24" t="d">
         <v>1954-10-19T00:00:00</v>
       </c>
-      <c r="E7" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F7" s="27" t="inlineStr">
+      <c r="E7" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F7" s="21" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G7" s="31" t="n">
+      <c r="G7" s="25" t="n">
         <v>27.9886</v>
       </c>
-      <c r="H7" s="31" t="n">
+      <c r="H7" s="25" t="n">
         <v>86.66079999999999</v>
       </c>
-      <c r="I7" s="27" t="inlineStr">
+      <c r="I7" s="21" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
       </c>
-      <c r="J7" s="32" t="n">
-        <v>0.9967813009764577</v>
+      <c r="J7" s="26" t="n">
+        <v>0.09340220736345273</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="inlineStr">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t>Dhaulagiri I</t>
         </is>
       </c>
-      <c r="B8" s="22" t="n">
+      <c r="B8" s="16" t="n">
         <v>8167</v>
       </c>
-      <c r="C8" s="22" t="n">
+      <c r="C8" s="16" t="n">
         <v>26795</v>
       </c>
-      <c r="D8" s="24" t="d">
+      <c r="D8" s="18" t="d">
         <v>1960-05-13T00:00:00</v>
       </c>
-      <c r="E8" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F8" s="21" t="inlineStr">
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="inlineStr">
         <is>
           <t>Pokhara</t>
         </is>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="19" t="n">
         <v>27.9887</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="19" t="n">
         <v>83.4875</v>
       </c>
-      <c r="I8" s="21" t="inlineStr">
+      <c r="I8" s="15" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J8" s="26" t="n">
-        <v>0.7171302064814374</v>
+      <c r="J8" s="20" t="n">
+        <v>0.05867817535827813</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>Manaslu</t>
         </is>
       </c>
-      <c r="B9" s="28" t="n">
+      <c r="B9" s="22" t="n">
         <v>8163</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="22" t="n">
         <v>26781</v>
       </c>
-      <c r="D9" s="30" t="d">
+      <c r="D9" s="24" t="d">
         <v>1956-05-09T00:00:00</v>
       </c>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="inlineStr">
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F9" s="21" t="inlineStr">
         <is>
           <t>Gorkha</t>
         </is>
       </c>
-      <c r="G9" s="31" t="n">
+      <c r="G9" s="25" t="n">
         <v>27.9888</v>
       </c>
-      <c r="H9" s="31" t="n">
+      <c r="H9" s="25" t="n">
         <v>84.55970000000001</v>
       </c>
-      <c r="I9" s="27" t="inlineStr">
+      <c r="I9" s="21" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J9" s="32" t="n">
-        <v>0.9444575489753664</v>
+      <c r="J9" s="26" t="n">
+        <v>0.1610091916786827</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="inlineStr">
+      <c r="A10" s="15" t="inlineStr">
         <is>
           <t>Nanga Parbat</t>
         </is>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="16" t="n">
         <v>8126</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="16" t="n">
         <v>26660</v>
       </c>
-      <c r="D10" s="24" t="d">
+      <c r="D10" s="18" t="d">
         <v>1953-07-03T00:00:00</v>
       </c>
-      <c r="E10" s="21" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F10" s="21" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="inlineStr">
         <is>
           <t>Gilgit</t>
         </is>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="19" t="n">
         <v>27.9889</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="19" t="n">
         <v>74.58920000000001</v>
       </c>
-      <c r="I10" s="21" t="inlineStr">
+      <c r="I10" s="15" t="inlineStr">
         <is>
           <t>Pakistan</t>
         </is>
       </c>
-      <c r="J10" s="26" t="n">
-        <v>0.4440205281606925</v>
+      <c r="J10" s="20" t="n">
+        <v>0.8013835278699959</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="inlineStr">
+      <c r="A11" s="21" t="inlineStr">
         <is>
           <t>Annapurna I</t>
         </is>
       </c>
-      <c r="B11" s="28" t="n">
+      <c r="B11" s="22" t="n">
         <v>8091</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="22" t="n">
         <v>26545</v>
       </c>
-      <c r="D11" s="30" t="d">
+      <c r="D11" s="24" t="d">
         <v>1950-06-03T00:00:00</v>
       </c>
-      <c r="E11" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F11" s="27" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
         <is>
           <t>Pokhara</t>
         </is>
       </c>
-      <c r="G11" s="31" t="n">
+      <c r="G11" s="25" t="n">
         <v>27.989</v>
       </c>
-      <c r="H11" s="31" t="n">
+      <c r="H11" s="25" t="n">
         <v>83.8203</v>
       </c>
-      <c r="I11" s="27" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
       </c>
-      <c r="J11" s="32" t="n">
-        <v>0.04880757941154334</v>
+      <c r="J11" s="26" t="n">
+        <v>0.3876381818585598</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="inlineStr">
+      <c r="A12" s="15" t="inlineStr">
         <is>
           <t>Gasherbrum I</t>
         </is>
       </c>
-      <c r="B12" s="22" t="n">
+      <c r="B12" s="16" t="n">
         <v>8080</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="16" t="n">
         <v>26509</v>
       </c>
-      <c r="D12" s="24" t="d">
+      <c r="D12" s="18" t="d">
         <v>1958-07-05T00:00:00</v>
       </c>
-      <c r="E12" s="21" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F12" s="21" t="inlineStr">
+      <c r="F12" s="15" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="19" t="n">
         <v>27.9891</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="19" t="n">
         <v>76.6961</v>
       </c>
-      <c r="I12" s="21" t="inlineStr">
+      <c r="I12" s="15" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J12" s="26" t="n">
-        <v>0.5992821358496242</v>
+      <c r="J12" s="20" t="n">
+        <v>0.2642714729305405</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="inlineStr">
+      <c r="A13" s="21" t="inlineStr">
         <is>
           <t>Broad Peak</t>
         </is>
       </c>
-      <c r="B13" s="28" t="n">
+      <c r="B13" s="22" t="n">
         <v>8051</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="22" t="n">
         <v>26414</v>
       </c>
-      <c r="D13" s="30" t="d">
+      <c r="D13" s="24" t="d">
         <v>1957-06-09T00:00:00</v>
       </c>
-      <c r="E13" s="27" t="inlineStr">
+      <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F13" s="27" t="inlineStr">
+      <c r="F13" s="21" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G13" s="31" t="n">
+      <c r="G13" s="25" t="n">
         <v>27.9892</v>
       </c>
-      <c r="H13" s="31" t="n">
+      <c r="H13" s="25" t="n">
         <v>76.565</v>
       </c>
-      <c r="I13" s="27" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J13" s="32" t="n">
-        <v>0.9722928009371848</v>
+      <c r="J13" s="26" t="n">
+        <v>0.2653911570391548</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>Gasherbrum II</t>
         </is>
       </c>
-      <c r="B14" s="22" t="n">
+      <c r="B14" s="16" t="n">
         <v>8035</v>
       </c>
-      <c r="C14" s="22" t="n">
+      <c r="C14" s="16" t="n">
         <v>26362</v>
       </c>
-      <c r="D14" s="24" t="d">
+      <c r="D14" s="18" t="d">
         <v>1956-07-07T00:00:00</v>
       </c>
-      <c r="E14" s="21" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Karakoram</t>
         </is>
       </c>
-      <c r="F14" s="21" t="inlineStr">
+      <c r="F14" s="15" t="inlineStr">
         <is>
           <t>Skardu</t>
         </is>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="19" t="n">
         <v>27.9893</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="19" t="n">
         <v>76.6533</v>
       </c>
-      <c r="I14" s="21" t="inlineStr">
+      <c r="I14" s="15" t="inlineStr">
         <is>
           <t>Pakistan/China</t>
         </is>
       </c>
-      <c r="J14" s="26" t="n">
-        <v>0.9147516158674294</v>
+      <c r="J14" s="20" t="n">
+        <v>0.723555809474846</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="inlineStr">
+      <c r="A15" s="21" t="inlineStr">
         <is>
           <t>Shishapangma</t>
         </is>
       </c>
-      <c r="B15" s="28" t="n">
+      <c r="B15" s="22" t="n">
         <v>8027</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="22" t="n">
         <v>26335</v>
       </c>
-      <c r="D15" s="30" t="d">
+      <c r="D15" s="24" t="d">
         <v>1964-05-02T00:00:00</v>
       </c>
-      <c r="E15" s="27" t="inlineStr">
-        <is>
-          <t>Himalayas</t>
-        </is>
-      </c>
-      <c r="F15" s="27" t="inlineStr">
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
       </c>
-      <c r="G15" s="31" t="n">
+      <c r="G15" s="25" t="n">
         <v>27.9894</v>
       </c>
-      <c r="H15" s="31" t="n">
+      <c r="H15" s="25" t="n">
         <v>85.7792</v>
       </c>
-      <c r="I15" s="27" t="inlineStr">
+      <c r="I15" s="21" t="inlineStr">
         <is>
           <t>China</t>
         </is>
       </c>
-      <c r="J15" s="32" t="n">
-        <v>0.2226262019234899</v>
+      <c r="J15" s="26" t="n">
+        <v>0.8162627963579147</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.2" customWidth="1" min="1" max="1"/>
+    <col width="16.8" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.4" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.2" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n">
+        <v>1442271</v>
+      </c>
+      <c r="C2" s="16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="D2" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="B3" s="22" t="n">
+        <v>26023</v>
+      </c>
+      <c r="C3" s="22" t="n">
+        <v>2228</v>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>Darjeeling</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="n">
+        <v>118805</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>2045</v>
+      </c>
+      <c r="D4" s="15" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="inlineStr">
+        <is>
+          <t>Pokhara</t>
+        </is>
+      </c>
+      <c r="B5" s="22" t="n">
+        <v>599504</v>
+      </c>
+      <c r="C5" s="22" t="n">
+        <v>822</v>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>Gorkha</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>252201</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>1130</v>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="inlineStr">
+        <is>
+          <t>Gilgit</t>
+        </is>
+      </c>
+      <c r="B7" s="22" t="n">
+        <v>216760</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="inlineStr">
+        <is>
+          <t>Joshimath</t>
+        </is>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>48202</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>1875</v>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" style="3" min="2" max="2"/>
+    <col width="9.6" customWidth="1" style="3" min="3" max="3"/>
+    <col width="24" customWidth="1" style="5" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="19.2" customWidth="1" min="6" max="6"/>
+    <col width="14.4" customWidth="1" style="6" min="7" max="7"/>
+    <col width="15.6" customWidth="1" style="6" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" style="7" min="10" max="10"/>
+    <col width="22.8" customWidth="1" style="3" min="11" max="11"/>
+    <col width="20.4" customWidth="1" style="3" min="12" max="12"/>
+    <col width="19.2" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Metres</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Feet</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Ascension</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Range</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Closest City</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>Preference</t>
+        </is>
+      </c>
+      <c r="K1" s="8" t="inlineStr">
+        <is>
+          <t>City Population</t>
+        </is>
+      </c>
+      <c r="L1" s="8" t="inlineStr">
+        <is>
+          <t>City Altitude</t>
+        </is>
+      </c>
+      <c r="M1" s="8" t="inlineStr">
+        <is>
+          <t>City Country</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Mount Everest</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n">
+        <v>8848</v>
+      </c>
+      <c r="C2" s="16" t="n">
+        <v>29029</v>
+      </c>
+      <c r="D2" s="18" t="d">
+        <v>1953-05-29T00:00:00</v>
+      </c>
+      <c r="E2" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F2" s="15" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G2" s="19" t="n">
+        <v>27.9881</v>
+      </c>
+      <c r="H2" s="19" t="n">
+        <v>86.925</v>
+      </c>
+      <c r="I2" s="15" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J2" s="20" t="n">
+        <v>0.195650212136614</v>
+      </c>
+      <c r="K2" s="16" t="n">
+        <v>1442271</v>
+      </c>
+      <c r="L2" s="16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="M2" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
+      <c r="B3" s="22" t="n">
+        <v>8611</v>
+      </c>
+      <c r="C3" s="22" t="n">
+        <v>28251</v>
+      </c>
+      <c r="D3" s="24" t="d">
+        <v>1954-07-31T00:00:00</v>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G3" s="25" t="n">
+        <v>27.9882</v>
+      </c>
+      <c r="H3" s="25" t="n">
+        <v>76.5133</v>
+      </c>
+      <c r="I3" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J3" s="26" t="n">
+        <v>0.2290265915225284</v>
+      </c>
+      <c r="K3" s="22" t="n">
+        <v>26023</v>
+      </c>
+      <c r="L3" s="22" t="n">
+        <v>2228</v>
+      </c>
+      <c r="M3" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>Kangchenjunga</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="n">
+        <v>8586</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>28169</v>
+      </c>
+      <c r="D4" s="18" t="d">
+        <v>1955-05-25T00:00:00</v>
+      </c>
+      <c r="E4" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t>Darjeeling</t>
+        </is>
+      </c>
+      <c r="G4" s="19" t="n">
+        <v>27.9883</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <v>88.14749999999999</v>
+      </c>
+      <c r="I4" s="15" t="inlineStr">
+        <is>
+          <t>Nepal/India</t>
+        </is>
+      </c>
+      <c r="J4" s="20" t="n">
+        <v>0.756128628893608</v>
+      </c>
+      <c r="K4" s="16" t="n">
+        <v>118805</v>
+      </c>
+      <c r="L4" s="16" t="n">
+        <v>2045</v>
+      </c>
+      <c r="M4" s="15" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="inlineStr">
+        <is>
+          <t>Lhotse</t>
+        </is>
+      </c>
+      <c r="B5" s="22" t="n">
+        <v>8516</v>
+      </c>
+      <c r="C5" s="22" t="n">
+        <v>27940</v>
+      </c>
+      <c r="D5" s="24" t="d">
+        <v>1956-05-18T00:00:00</v>
+      </c>
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F5" s="21" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G5" s="25" t="n">
+        <v>27.9884</v>
+      </c>
+      <c r="H5" s="25" t="n">
+        <v>86.93300000000001</v>
+      </c>
+      <c r="I5" s="21" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J5" s="26" t="n">
+        <v>0.4283108897333244</v>
+      </c>
+      <c r="K5" s="22" t="n">
+        <v>1442271</v>
+      </c>
+      <c r="L5" s="22" t="n">
+        <v>1324</v>
+      </c>
+      <c r="M5" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>Makalu</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>8485</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>27838</v>
+      </c>
+      <c r="D6" s="18" t="d">
+        <v>1955-05-15T00:00:00</v>
+      </c>
+      <c r="E6" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F6" s="15" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G6" s="19" t="n">
+        <v>27.9885</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>87.0883</v>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>0.3160585581391768</v>
+      </c>
+      <c r="K6" s="16" t="n">
+        <v>1442271</v>
+      </c>
+      <c r="L6" s="16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="M6" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="inlineStr">
+        <is>
+          <t>Cho Oyu</t>
+        </is>
+      </c>
+      <c r="B7" s="22" t="n">
+        <v>8188</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>26864</v>
+      </c>
+      <c r="D7" s="24" t="d">
+        <v>1954-10-19T00:00:00</v>
+      </c>
+      <c r="E7" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F7" s="21" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>27.9886</v>
+      </c>
+      <c r="H7" s="25" t="n">
+        <v>86.66079999999999</v>
+      </c>
+      <c r="I7" s="21" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J7" s="26" t="n">
+        <v>0.09340220736345273</v>
+      </c>
+      <c r="K7" s="22" t="n">
+        <v>1442271</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>1324</v>
+      </c>
+      <c r="M7" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="inlineStr">
+        <is>
+          <t>Dhaulagiri I</t>
+        </is>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>8167</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>26795</v>
+      </c>
+      <c r="D8" s="18" t="d">
+        <v>1960-05-13T00:00:00</v>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="inlineStr">
+        <is>
+          <t>Pokhara</t>
+        </is>
+      </c>
+      <c r="G8" s="19" t="n">
+        <v>27.9887</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>83.4875</v>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J8" s="20" t="n">
+        <v>0.05867817535827813</v>
+      </c>
+      <c r="K8" s="16" t="n">
+        <v>599504</v>
+      </c>
+      <c r="L8" s="16" t="n">
+        <v>822</v>
+      </c>
+      <c r="M8" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="inlineStr">
+        <is>
+          <t>Manaslu</t>
+        </is>
+      </c>
+      <c r="B9" s="22" t="n">
+        <v>8163</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>26781</v>
+      </c>
+      <c r="D9" s="24" t="d">
+        <v>1956-05-09T00:00:00</v>
+      </c>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F9" s="21" t="inlineStr">
+        <is>
+          <t>Gorkha</t>
+        </is>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>27.9888</v>
+      </c>
+      <c r="H9" s="25" t="n">
+        <v>84.55970000000001</v>
+      </c>
+      <c r="I9" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J9" s="26" t="n">
+        <v>0.1610091916786827</v>
+      </c>
+      <c r="K9" s="22" t="n">
+        <v>252201</v>
+      </c>
+      <c r="L9" s="22" t="n">
+        <v>1130</v>
+      </c>
+      <c r="M9" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="inlineStr">
+        <is>
+          <t>Nanga Parbat</t>
+        </is>
+      </c>
+      <c r="B10" s="16" t="n">
+        <v>8126</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>26660</v>
+      </c>
+      <c r="D10" s="18" t="d">
+        <v>1953-07-03T00:00:00</v>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="inlineStr">
+        <is>
+          <t>Gilgit</t>
+        </is>
+      </c>
+      <c r="G10" s="19" t="n">
+        <v>27.9889</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>74.58920000000001</v>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="J10" s="20" t="n">
+        <v>0.8013835278699959</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <v>216760</v>
+      </c>
+      <c r="L10" s="16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M10" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="inlineStr">
+        <is>
+          <t>Annapurna I</t>
+        </is>
+      </c>
+      <c r="B11" s="22" t="n">
+        <v>8091</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>26545</v>
+      </c>
+      <c r="D11" s="24" t="d">
+        <v>1950-06-03T00:00:00</v>
+      </c>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
+        <is>
+          <t>Pokhara</t>
+        </is>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>27.989</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>83.8203</v>
+      </c>
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J11" s="26" t="n">
+        <v>0.3876381818585598</v>
+      </c>
+      <c r="K11" s="22" t="n">
+        <v>599504</v>
+      </c>
+      <c r="L11" s="22" t="n">
+        <v>822</v>
+      </c>
+      <c r="M11" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>Gasherbrum I</t>
+        </is>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>8080</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>26509</v>
+      </c>
+      <c r="D12" s="18" t="d">
+        <v>1958-07-05T00:00:00</v>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G12" s="19" t="n">
+        <v>27.9891</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>76.6961</v>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J12" s="20" t="n">
+        <v>0.2642714729305405</v>
+      </c>
+      <c r="K12" s="16" t="n">
+        <v>26023</v>
+      </c>
+      <c r="L12" s="16" t="n">
+        <v>2228</v>
+      </c>
+      <c r="M12" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="inlineStr">
+        <is>
+          <t>Broad Peak</t>
+        </is>
+      </c>
+      <c r="B13" s="22" t="n">
+        <v>8051</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>26414</v>
+      </c>
+      <c r="D13" s="24" t="d">
+        <v>1957-06-09T00:00:00</v>
+      </c>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F13" s="21" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G13" s="25" t="n">
+        <v>27.9892</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>76.565</v>
+      </c>
+      <c r="I13" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J13" s="26" t="n">
+        <v>0.2653911570391548</v>
+      </c>
+      <c r="K13" s="22" t="n">
+        <v>26023</v>
+      </c>
+      <c r="L13" s="22" t="n">
+        <v>2228</v>
+      </c>
+      <c r="M13" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>Gasherbrum II</t>
+        </is>
+      </c>
+      <c r="B14" s="16" t="n">
+        <v>8035</v>
+      </c>
+      <c r="C14" s="16" t="n">
+        <v>26362</v>
+      </c>
+      <c r="D14" s="18" t="d">
+        <v>1956-07-07T00:00:00</v>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G14" s="19" t="n">
+        <v>27.9893</v>
+      </c>
+      <c r="H14" s="19" t="n">
+        <v>76.6533</v>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>0.723555809474846</v>
+      </c>
+      <c r="K14" s="16" t="n">
+        <v>26023</v>
+      </c>
+      <c r="L14" s="16" t="n">
+        <v>2228</v>
+      </c>
+      <c r="M14" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="inlineStr">
+        <is>
+          <t>Shishapangma</t>
+        </is>
+      </c>
+      <c r="B15" s="22" t="n">
+        <v>8027</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>26335</v>
+      </c>
+      <c r="D15" s="24" t="d">
+        <v>1964-05-02T00:00:00</v>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G15" s="25" t="n">
+        <v>27.9894</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <v>85.7792</v>
+      </c>
+      <c r="I15" s="21" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J15" s="26" t="n">
+        <v>0.8162627963579147</v>
+      </c>
+      <c r="K15" s="22" t="n">
+        <v>1442271</v>
+      </c>
+      <c r="L15" s="22" t="n">
+        <v>1324</v>
+      </c>
+      <c r="M15" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>Gyachung Kang</t>
+        </is>
+      </c>
+      <c r="B16" s="16" t="n">
+        <v>7952</v>
+      </c>
+      <c r="C16" s="16" t="n">
+        <v>26089</v>
+      </c>
+      <c r="D16" s="18" t="d">
+        <v>1964-04-10T00:00:00</v>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G16" s="19" t="n">
+        <v>27.9895</v>
+      </c>
+      <c r="H16" s="19" t="n">
+        <v>86.74250000000001</v>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J16" s="20" t="n">
+        <v>0.4373928917187988</v>
+      </c>
+      <c r="K16" s="16" t="n">
+        <v>1442271</v>
+      </c>
+      <c r="L16" s="16" t="n">
+        <v>1324</v>
+      </c>
+      <c r="M16" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>Annapurna II</t>
+        </is>
+      </c>
+      <c r="B17" s="22" t="n">
+        <v>7937</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>26040</v>
+      </c>
+      <c r="D17" s="24" t="d">
+        <v>1960-05-17T00:00:00</v>
+      </c>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="inlineStr">
+        <is>
+          <t>Pokhara</t>
+        </is>
+      </c>
+      <c r="G17" s="25" t="n">
+        <v>27.9896</v>
+      </c>
+      <c r="H17" s="25" t="n">
+        <v>84.1203</v>
+      </c>
+      <c r="I17" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J17" s="26" t="n">
+        <v>0.7477439431177361</v>
+      </c>
+      <c r="K17" s="22" t="n">
+        <v>599504</v>
+      </c>
+      <c r="L17" s="22" t="n">
+        <v>822</v>
+      </c>
+      <c r="M17" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>Gasherbrum III</t>
+        </is>
+      </c>
+      <c r="B18" s="16" t="n">
+        <v>7946</v>
+      </c>
+      <c r="C18" s="16" t="n">
+        <v>26070</v>
+      </c>
+      <c r="D18" s="18" t="d">
+        <v>1975-08-11T00:00:00</v>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G18" s="19" t="n">
+        <v>27.9897</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <v>76.565</v>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>0.4340777249480395</v>
+      </c>
+      <c r="K18" s="16" t="n">
+        <v>26023</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <v>2228</v>
+      </c>
+      <c r="M18" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="inlineStr">
+        <is>
+          <t>Gasherbrum IV</t>
+        </is>
+      </c>
+      <c r="B19" s="22" t="n">
+        <v>7932</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>26024</v>
+      </c>
+      <c r="D19" s="24" t="d">
+        <v>1958-08-06T00:00:00</v>
+      </c>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F19" s="21" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G19" s="25" t="n">
+        <v>27.9898</v>
+      </c>
+      <c r="H19" s="25" t="n">
+        <v>76.56829999999999</v>
+      </c>
+      <c r="I19" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J19" s="26" t="n">
+        <v>0.1832803466713171</v>
+      </c>
+      <c r="K19" s="22" t="n">
+        <v>26023</v>
+      </c>
+      <c r="L19" s="22" t="n">
+        <v>2228</v>
+      </c>
+      <c r="M19" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/output_mult.xlsx
+++ b/test/output_mult.xlsx
@@ -7,15 +7,17 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mountains" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Higher than 8500" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Higher than 8000" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cities" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mountains Full" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Higher than {MAX_ALTITUDE}" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mountains Full" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mountains'!$A$1:$J$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Higher than 8500'!$A$1:$J$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Higher than 8000'!$A$1:$J$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cities'!$A$1:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mountains Full'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Higher than {MAX_ALTITUDE}'!$A$1:$J$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Mountains Full'!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -75,17 +77,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00eeeeee"/>
+        <fgColor rgb="00EEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00fffec8"/>
+        <fgColor rgb="00FFFEC8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00a1caf1"/>
+        <fgColor rgb="00A1CAF1"/>
       </patternFill>
     </fill>
   </fills>
@@ -570,7 +572,7 @@
     <col width="14.4" customWidth="1" style="6" min="7" max="7"/>
     <col width="15.6" customWidth="1" style="6" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" style="7" min="10" max="10"/>
+    <col width="16.8" customWidth="1" style="7" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -662,7 +664,7 @@
         </is>
       </c>
       <c r="J2" s="14" t="n">
-        <v>0.195650212136614</v>
+        <v>0.109485</v>
       </c>
     </row>
     <row r="3">
@@ -702,7 +704,7 @@
         </is>
       </c>
       <c r="J3" s="14" t="n">
-        <v>0.2290265915225284</v>
+        <v>0.765132</v>
       </c>
     </row>
     <row r="4">
@@ -742,7 +744,7 @@
         </is>
       </c>
       <c r="J4" s="14" t="n">
-        <v>0.756128628893608</v>
+        <v>0.304068</v>
       </c>
     </row>
     <row r="5">
@@ -782,7 +784,7 @@
         </is>
       </c>
       <c r="J5" s="14" t="n">
-        <v>0.4283108897333244</v>
+        <v>0.523421</v>
       </c>
     </row>
     <row r="6">
@@ -822,7 +824,7 @@
         </is>
       </c>
       <c r="J6" s="20" t="n">
-        <v>0.3160585581391768</v>
+        <v>0.396557</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +864,7 @@
         </is>
       </c>
       <c r="J7" s="26" t="n">
-        <v>0.09340220736345273</v>
+        <v>0.273592</v>
       </c>
     </row>
     <row r="8">
@@ -902,7 +904,7 @@
         </is>
       </c>
       <c r="J8" s="20" t="n">
-        <v>0.05867817535827813</v>
+        <v>0.268625</v>
       </c>
     </row>
     <row r="9">
@@ -942,7 +944,7 @@
         </is>
       </c>
       <c r="J9" s="26" t="n">
-        <v>0.1610091916786827</v>
+        <v>0.017357</v>
       </c>
     </row>
     <row r="10">
@@ -982,7 +984,7 @@
         </is>
       </c>
       <c r="J10" s="20" t="n">
-        <v>0.8013835278699959</v>
+        <v>0.18808</v>
       </c>
     </row>
     <row r="11">
@@ -1022,7 +1024,7 @@
         </is>
       </c>
       <c r="J11" s="26" t="n">
-        <v>0.3876381818585598</v>
+        <v>0.889866</v>
       </c>
     </row>
     <row r="12">
@@ -1062,7 +1064,7 @@
         </is>
       </c>
       <c r="J12" s="20" t="n">
-        <v>0.2642714729305405</v>
+        <v>0.843898</v>
       </c>
     </row>
     <row r="13">
@@ -1102,7 +1104,7 @@
         </is>
       </c>
       <c r="J13" s="26" t="n">
-        <v>0.2653911570391548</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="14">
@@ -1142,7 +1144,7 @@
         </is>
       </c>
       <c r="J14" s="20" t="n">
-        <v>0.723555809474846</v>
+        <v>0.292024</v>
       </c>
     </row>
     <row r="15">
@@ -1182,7 +1184,7 @@
         </is>
       </c>
       <c r="J15" s="26" t="n">
-        <v>0.8162627963579147</v>
+        <v>0.47706</v>
       </c>
     </row>
     <row r="16">
@@ -1222,7 +1224,7 @@
         </is>
       </c>
       <c r="J16" s="20" t="n">
-        <v>0.4373928917187988</v>
+        <v>0.878262</v>
       </c>
     </row>
     <row r="17">
@@ -1262,7 +1264,7 @@
         </is>
       </c>
       <c r="J17" s="26" t="n">
-        <v>0.7477439431177361</v>
+        <v>0.806481</v>
       </c>
     </row>
     <row r="18">
@@ -1302,7 +1304,7 @@
         </is>
       </c>
       <c r="J18" s="20" t="n">
-        <v>0.4340777249480395</v>
+        <v>0.230078</v>
       </c>
     </row>
     <row r="19">
@@ -1342,7 +1344,7 @@
         </is>
       </c>
       <c r="J19" s="26" t="n">
-        <v>0.1832803466713171</v>
+        <v>0.048044</v>
       </c>
     </row>
     <row r="20">
@@ -1382,7 +1384,7 @@
         </is>
       </c>
       <c r="J20" s="20" t="n">
-        <v>0.6294085854430137</v>
+        <v>0.106818</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1424,7 @@
         </is>
       </c>
       <c r="J21" s="26" t="n">
-        <v>0.6624074423254123</v>
+        <v>0.647976</v>
       </c>
     </row>
     <row r="22">
@@ -1462,7 +1464,7 @@
         </is>
       </c>
       <c r="J22" s="20" t="n">
-        <v>0.2375736963489835</v>
+        <v>0.6198900000000001</v>
       </c>
     </row>
     <row r="23">
@@ -1502,7 +1504,7 @@
         </is>
       </c>
       <c r="J23" s="26" t="n">
-        <v>0.4100941945991062</v>
+        <v>0.8619520000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1542,7 +1544,7 @@
         </is>
       </c>
       <c r="J24" s="20" t="n">
-        <v>0.4495985376644718</v>
+        <v>0.919411</v>
       </c>
     </row>
     <row r="25">
@@ -1582,7 +1584,7 @@
         </is>
       </c>
       <c r="J25" s="26" t="n">
-        <v>0.2640043296186692</v>
+        <v>0.590913</v>
       </c>
     </row>
     <row r="26">
@@ -1622,7 +1624,7 @@
         </is>
       </c>
       <c r="J26" s="20" t="n">
-        <v>0.2825609067326104</v>
+        <v>0.183695</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1657,7 @@
     <col width="14.4" customWidth="1" style="6" min="7" max="7"/>
     <col width="15.6" customWidth="1" style="6" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" style="7" min="10" max="10"/>
+    <col width="16.8" customWidth="1" style="7" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1747,7 +1749,7 @@
         </is>
       </c>
       <c r="J2" s="20" t="n">
-        <v>0.195650212136614</v>
+        <v>0.109485</v>
       </c>
     </row>
     <row r="3">
@@ -1787,7 +1789,7 @@
         </is>
       </c>
       <c r="J3" s="26" t="n">
-        <v>0.2290265915225284</v>
+        <v>0.765132</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1829,7 @@
         </is>
       </c>
       <c r="J4" s="20" t="n">
-        <v>0.756128628893608</v>
+        <v>0.304068</v>
       </c>
     </row>
     <row r="5">
@@ -1867,7 +1869,7 @@
         </is>
       </c>
       <c r="J5" s="26" t="n">
-        <v>0.4283108897333244</v>
+        <v>0.523421</v>
       </c>
     </row>
     <row r="6">
@@ -1907,7 +1909,7 @@
         </is>
       </c>
       <c r="J6" s="20" t="n">
-        <v>0.3160585581391768</v>
+        <v>0.396557</v>
       </c>
     </row>
     <row r="7">
@@ -1947,7 +1949,7 @@
         </is>
       </c>
       <c r="J7" s="26" t="n">
-        <v>0.09340220736345273</v>
+        <v>0.273592</v>
       </c>
     </row>
     <row r="8">
@@ -1987,7 +1989,7 @@
         </is>
       </c>
       <c r="J8" s="20" t="n">
-        <v>0.05867817535827813</v>
+        <v>0.268625</v>
       </c>
     </row>
     <row r="9">
@@ -2027,7 +2029,7 @@
         </is>
       </c>
       <c r="J9" s="26" t="n">
-        <v>0.1610091916786827</v>
+        <v>0.017357</v>
       </c>
     </row>
     <row r="10">
@@ -2067,7 +2069,7 @@
         </is>
       </c>
       <c r="J10" s="20" t="n">
-        <v>0.8013835278699959</v>
+        <v>0.18808</v>
       </c>
     </row>
     <row r="11">
@@ -2107,7 +2109,7 @@
         </is>
       </c>
       <c r="J11" s="26" t="n">
-        <v>0.3876381818585598</v>
+        <v>0.889866</v>
       </c>
     </row>
     <row r="12">
@@ -2147,7 +2149,7 @@
         </is>
       </c>
       <c r="J12" s="20" t="n">
-        <v>0.2642714729305405</v>
+        <v>0.843898</v>
       </c>
     </row>
     <row r="13">
@@ -2187,7 +2189,7 @@
         </is>
       </c>
       <c r="J13" s="26" t="n">
-        <v>0.2653911570391548</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="14">
@@ -2227,7 +2229,7 @@
         </is>
       </c>
       <c r="J14" s="20" t="n">
-        <v>0.723555809474846</v>
+        <v>0.292024</v>
       </c>
     </row>
     <row r="15">
@@ -2267,7 +2269,7 @@
         </is>
       </c>
       <c r="J15" s="26" t="n">
-        <v>0.8162627963579147</v>
+        <v>0.47706</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2475,7 +2477,812 @@
     <col width="14.4" customWidth="1" style="6" min="7" max="7"/>
     <col width="15.6" customWidth="1" style="6" min="8" max="8"/>
     <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" style="7" min="10" max="10"/>
+    <col width="16.8" customWidth="1" style="7" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Metres</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Feet</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Ascension</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Range</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>Closest City</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="J1" s="8" t="inlineStr">
+        <is>
+          <t>Preference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Mount Everest</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n">
+        <v>8848</v>
+      </c>
+      <c r="C2" s="16" t="n">
+        <v>29029</v>
+      </c>
+      <c r="D2" s="18" t="d">
+        <v>1953-05-29T00:00:00</v>
+      </c>
+      <c r="E2" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F2" s="15" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G2" s="19" t="n">
+        <v>27.9881</v>
+      </c>
+      <c r="H2" s="19" t="n">
+        <v>86.925</v>
+      </c>
+      <c r="I2" s="15" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J2" s="20" t="n">
+        <v>0.109485</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
+      <c r="B3" s="22" t="n">
+        <v>8611</v>
+      </c>
+      <c r="C3" s="22" t="n">
+        <v>28251</v>
+      </c>
+      <c r="D3" s="24" t="d">
+        <v>1954-07-31T00:00:00</v>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G3" s="25" t="n">
+        <v>27.9882</v>
+      </c>
+      <c r="H3" s="25" t="n">
+        <v>76.5133</v>
+      </c>
+      <c r="I3" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J3" s="26" t="n">
+        <v>0.765132</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>Kangchenjunga</t>
+        </is>
+      </c>
+      <c r="B4" s="16" t="n">
+        <v>8586</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>28169</v>
+      </c>
+      <c r="D4" s="18" t="d">
+        <v>1955-05-25T00:00:00</v>
+      </c>
+      <c r="E4" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t>Darjeeling</t>
+        </is>
+      </c>
+      <c r="G4" s="19" t="n">
+        <v>27.9883</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <v>88.14749999999999</v>
+      </c>
+      <c r="I4" s="15" t="inlineStr">
+        <is>
+          <t>Nepal/India</t>
+        </is>
+      </c>
+      <c r="J4" s="20" t="n">
+        <v>0.304068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="inlineStr">
+        <is>
+          <t>Lhotse</t>
+        </is>
+      </c>
+      <c r="B5" s="22" t="n">
+        <v>8516</v>
+      </c>
+      <c r="C5" s="22" t="n">
+        <v>27940</v>
+      </c>
+      <c r="D5" s="24" t="d">
+        <v>1956-05-18T00:00:00</v>
+      </c>
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F5" s="21" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G5" s="25" t="n">
+        <v>27.9884</v>
+      </c>
+      <c r="H5" s="25" t="n">
+        <v>86.93300000000001</v>
+      </c>
+      <c r="I5" s="21" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J5" s="26" t="n">
+        <v>0.523421</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>Makalu</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>8485</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>27838</v>
+      </c>
+      <c r="D6" s="18" t="d">
+        <v>1955-05-15T00:00:00</v>
+      </c>
+      <c r="E6" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F6" s="15" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G6" s="19" t="n">
+        <v>27.9885</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>87.0883</v>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>0.396557</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="inlineStr">
+        <is>
+          <t>Cho Oyu</t>
+        </is>
+      </c>
+      <c r="B7" s="22" t="n">
+        <v>8188</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>26864</v>
+      </c>
+      <c r="D7" s="24" t="d">
+        <v>1954-10-19T00:00:00</v>
+      </c>
+      <c r="E7" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F7" s="21" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>27.9886</v>
+      </c>
+      <c r="H7" s="25" t="n">
+        <v>86.66079999999999</v>
+      </c>
+      <c r="I7" s="21" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J7" s="26" t="n">
+        <v>0.273592</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="inlineStr">
+        <is>
+          <t>Dhaulagiri I</t>
+        </is>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>8167</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>26795</v>
+      </c>
+      <c r="D8" s="18" t="d">
+        <v>1960-05-13T00:00:00</v>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="inlineStr">
+        <is>
+          <t>Pokhara</t>
+        </is>
+      </c>
+      <c r="G8" s="19" t="n">
+        <v>27.9887</v>
+      </c>
+      <c r="H8" s="19" t="n">
+        <v>83.4875</v>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J8" s="20" t="n">
+        <v>0.268625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="inlineStr">
+        <is>
+          <t>Manaslu</t>
+        </is>
+      </c>
+      <c r="B9" s="22" t="n">
+        <v>8163</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>26781</v>
+      </c>
+      <c r="D9" s="24" t="d">
+        <v>1956-05-09T00:00:00</v>
+      </c>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F9" s="21" t="inlineStr">
+        <is>
+          <t>Gorkha</t>
+        </is>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>27.9888</v>
+      </c>
+      <c r="H9" s="25" t="n">
+        <v>84.55970000000001</v>
+      </c>
+      <c r="I9" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J9" s="26" t="n">
+        <v>0.017357</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="inlineStr">
+        <is>
+          <t>Nanga Parbat</t>
+        </is>
+      </c>
+      <c r="B10" s="16" t="n">
+        <v>8126</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>26660</v>
+      </c>
+      <c r="D10" s="18" t="d">
+        <v>1953-07-03T00:00:00</v>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="inlineStr">
+        <is>
+          <t>Gilgit</t>
+        </is>
+      </c>
+      <c r="G10" s="19" t="n">
+        <v>27.9889</v>
+      </c>
+      <c r="H10" s="19" t="n">
+        <v>74.58920000000001</v>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="J10" s="20" t="n">
+        <v>0.18808</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="inlineStr">
+        <is>
+          <t>Annapurna I</t>
+        </is>
+      </c>
+      <c r="B11" s="22" t="n">
+        <v>8091</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <v>26545</v>
+      </c>
+      <c r="D11" s="24" t="d">
+        <v>1950-06-03T00:00:00</v>
+      </c>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
+        <is>
+          <t>Pokhara</t>
+        </is>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>27.989</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>83.8203</v>
+      </c>
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J11" s="26" t="n">
+        <v>0.889866</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="inlineStr">
+        <is>
+          <t>Gasherbrum I</t>
+        </is>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>8080</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>26509</v>
+      </c>
+      <c r="D12" s="18" t="d">
+        <v>1958-07-05T00:00:00</v>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G12" s="19" t="n">
+        <v>27.9891</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>76.6961</v>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J12" s="20" t="n">
+        <v>0.843898</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="inlineStr">
+        <is>
+          <t>Broad Peak</t>
+        </is>
+      </c>
+      <c r="B13" s="22" t="n">
+        <v>8051</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>26414</v>
+      </c>
+      <c r="D13" s="24" t="d">
+        <v>1957-06-09T00:00:00</v>
+      </c>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F13" s="21" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G13" s="25" t="n">
+        <v>27.9892</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>76.565</v>
+      </c>
+      <c r="I13" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J13" s="26" t="n">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>Gasherbrum II</t>
+        </is>
+      </c>
+      <c r="B14" s="16" t="n">
+        <v>8035</v>
+      </c>
+      <c r="C14" s="16" t="n">
+        <v>26362</v>
+      </c>
+      <c r="D14" s="18" t="d">
+        <v>1956-07-07T00:00:00</v>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G14" s="19" t="n">
+        <v>27.9893</v>
+      </c>
+      <c r="H14" s="19" t="n">
+        <v>76.6533</v>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>0.292024</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="inlineStr">
+        <is>
+          <t>Shishapangma</t>
+        </is>
+      </c>
+      <c r="B15" s="22" t="n">
+        <v>8027</v>
+      </c>
+      <c r="C15" s="22" t="n">
+        <v>26335</v>
+      </c>
+      <c r="D15" s="24" t="d">
+        <v>1964-05-02T00:00:00</v>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G15" s="25" t="n">
+        <v>27.9894</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <v>85.7792</v>
+      </c>
+      <c r="I15" s="21" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="J15" s="26" t="n">
+        <v>0.47706</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>Gyachung Kang</t>
+        </is>
+      </c>
+      <c r="B16" s="16" t="n">
+        <v>7952</v>
+      </c>
+      <c r="C16" s="16" t="n">
+        <v>26089</v>
+      </c>
+      <c r="D16" s="18" t="d">
+        <v>1964-04-10T00:00:00</v>
+      </c>
+      <c r="E16" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>Kathmandu</t>
+        </is>
+      </c>
+      <c r="G16" s="19" t="n">
+        <v>27.9895</v>
+      </c>
+      <c r="H16" s="19" t="n">
+        <v>86.74250000000001</v>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>Nepal/China</t>
+        </is>
+      </c>
+      <c r="J16" s="20" t="n">
+        <v>0.878262</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>Annapurna II</t>
+        </is>
+      </c>
+      <c r="B17" s="22" t="n">
+        <v>7937</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>26040</v>
+      </c>
+      <c r="D17" s="24" t="d">
+        <v>1960-05-17T00:00:00</v>
+      </c>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="inlineStr">
+        <is>
+          <t>Pokhara</t>
+        </is>
+      </c>
+      <c r="G17" s="25" t="n">
+        <v>27.9896</v>
+      </c>
+      <c r="H17" s="25" t="n">
+        <v>84.1203</v>
+      </c>
+      <c r="I17" s="21" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J17" s="26" t="n">
+        <v>0.806481</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>Gasherbrum III</t>
+        </is>
+      </c>
+      <c r="B18" s="16" t="n">
+        <v>7946</v>
+      </c>
+      <c r="C18" s="16" t="n">
+        <v>26070</v>
+      </c>
+      <c r="D18" s="18" t="d">
+        <v>1975-08-11T00:00:00</v>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G18" s="19" t="n">
+        <v>27.9897</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <v>76.565</v>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>0.230078</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="inlineStr">
+        <is>
+          <t>Gasherbrum IV</t>
+        </is>
+      </c>
+      <c r="B19" s="22" t="n">
+        <v>7932</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <v>26024</v>
+      </c>
+      <c r="D19" s="24" t="d">
+        <v>1958-08-06T00:00:00</v>
+      </c>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F19" s="21" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G19" s="25" t="n">
+        <v>27.9898</v>
+      </c>
+      <c r="H19" s="25" t="n">
+        <v>76.56829999999999</v>
+      </c>
+      <c r="I19" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan/China</t>
+        </is>
+      </c>
+      <c r="J19" s="26" t="n">
+        <v>0.048044</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" style="3" min="2" max="2"/>
+    <col width="9.6" customWidth="1" style="3" min="3" max="3"/>
+    <col width="24" customWidth="1" style="5" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="19.2" customWidth="1" min="6" max="6"/>
+    <col width="14.4" customWidth="1" style="6" min="7" max="7"/>
+    <col width="15.6" customWidth="1" style="6" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="16.8" customWidth="1" style="7" min="10" max="10"/>
     <col width="22.8" customWidth="1" style="3" min="11" max="11"/>
     <col width="20.4" customWidth="1" style="3" min="12" max="12"/>
     <col width="19.2" customWidth="1" min="13" max="13"/>
@@ -2585,7 +3392,7 @@
         </is>
       </c>
       <c r="J2" s="20" t="n">
-        <v>0.195650212136614</v>
+        <v>0.109485</v>
       </c>
       <c r="K2" s="16" t="n">
         <v>1442271</v>
@@ -2636,7 +3443,7 @@
         </is>
       </c>
       <c r="J3" s="26" t="n">
-        <v>0.2290265915225284</v>
+        <v>0.765132</v>
       </c>
       <c r="K3" s="22" t="n">
         <v>26023</v>
@@ -2687,7 +3494,7 @@
         </is>
       </c>
       <c r="J4" s="20" t="n">
-        <v>0.756128628893608</v>
+        <v>0.304068</v>
       </c>
       <c r="K4" s="16" t="n">
         <v>118805</v>
@@ -2738,7 +3545,7 @@
         </is>
       </c>
       <c r="J5" s="26" t="n">
-        <v>0.4283108897333244</v>
+        <v>0.523421</v>
       </c>
       <c r="K5" s="22" t="n">
         <v>1442271</v>
@@ -2789,7 +3596,7 @@
         </is>
       </c>
       <c r="J6" s="20" t="n">
-        <v>0.3160585581391768</v>
+        <v>0.396557</v>
       </c>
       <c r="K6" s="16" t="n">
         <v>1442271</v>
@@ -2840,7 +3647,7 @@
         </is>
       </c>
       <c r="J7" s="26" t="n">
-        <v>0.09340220736345273</v>
+        <v>0.273592</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>1442271</v>
@@ -2891,7 +3698,7 @@
         </is>
       </c>
       <c r="J8" s="20" t="n">
-        <v>0.05867817535827813</v>
+        <v>0.268625</v>
       </c>
       <c r="K8" s="16" t="n">
         <v>599504</v>
@@ -2942,7 +3749,7 @@
         </is>
       </c>
       <c r="J9" s="26" t="n">
-        <v>0.1610091916786827</v>
+        <v>0.017357</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>252201</v>
@@ -2993,7 +3800,7 @@
         </is>
       </c>
       <c r="J10" s="20" t="n">
-        <v>0.8013835278699959</v>
+        <v>0.18808</v>
       </c>
       <c r="K10" s="16" t="n">
         <v>216760</v>
@@ -3044,7 +3851,7 @@
         </is>
       </c>
       <c r="J11" s="26" t="n">
-        <v>0.3876381818585598</v>
+        <v>0.889866</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>599504</v>
@@ -3095,7 +3902,7 @@
         </is>
       </c>
       <c r="J12" s="20" t="n">
-        <v>0.2642714729305405</v>
+        <v>0.843898</v>
       </c>
       <c r="K12" s="16" t="n">
         <v>26023</v>
@@ -3146,7 +3953,7 @@
         </is>
       </c>
       <c r="J13" s="26" t="n">
-        <v>0.2653911570391548</v>
+        <v>0.309</v>
       </c>
       <c r="K13" s="22" t="n">
         <v>26023</v>
@@ -3197,7 +4004,7 @@
         </is>
       </c>
       <c r="J14" s="20" t="n">
-        <v>0.723555809474846</v>
+        <v>0.292024</v>
       </c>
       <c r="K14" s="16" t="n">
         <v>26023</v>
@@ -3248,7 +4055,7 @@
         </is>
       </c>
       <c r="J15" s="26" t="n">
-        <v>0.8162627963579147</v>
+        <v>0.47706</v>
       </c>
       <c r="K15" s="22" t="n">
         <v>1442271</v>
@@ -3299,7 +4106,7 @@
         </is>
       </c>
       <c r="J16" s="20" t="n">
-        <v>0.4373928917187988</v>
+        <v>0.878262</v>
       </c>
       <c r="K16" s="16" t="n">
         <v>1442271</v>
@@ -3350,7 +4157,7 @@
         </is>
       </c>
       <c r="J17" s="26" t="n">
-        <v>0.7477439431177361</v>
+        <v>0.806481</v>
       </c>
       <c r="K17" s="22" t="n">
         <v>599504</v>
@@ -3401,7 +4208,7 @@
         </is>
       </c>
       <c r="J18" s="20" t="n">
-        <v>0.4340777249480395</v>
+        <v>0.230078</v>
       </c>
       <c r="K18" s="16" t="n">
         <v>26023</v>
@@ -3452,7 +4259,7 @@
         </is>
       </c>
       <c r="J19" s="26" t="n">
-        <v>0.1832803466713171</v>
+        <v>0.048044</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>26023</v>
@@ -3466,8 +4273,365 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="15" t="inlineStr">
+        <is>
+          <t>Himalchuli</t>
+        </is>
+      </c>
+      <c r="B20" s="16" t="n">
+        <v>7893</v>
+      </c>
+      <c r="C20" s="16" t="n">
+        <v>25896</v>
+      </c>
+      <c r="D20" s="18" t="d">
+        <v>1960-05-24T00:00:00</v>
+      </c>
+      <c r="E20" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F20" s="15" t="inlineStr">
+        <is>
+          <t>Gorkha</t>
+        </is>
+      </c>
+      <c r="G20" s="19" t="n">
+        <v>27.9899</v>
+      </c>
+      <c r="H20" s="19" t="n">
+        <v>84.625</v>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J20" s="20" t="n">
+        <v>0.106818</v>
+      </c>
+      <c r="K20" s="16" t="n">
+        <v>252201</v>
+      </c>
+      <c r="L20" s="16" t="n">
+        <v>1130</v>
+      </c>
+      <c r="M20" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>Distaghil Sar</t>
+        </is>
+      </c>
+      <c r="B21" s="22" t="n">
+        <v>7885</v>
+      </c>
+      <c r="C21" s="22" t="n">
+        <v>25869</v>
+      </c>
+      <c r="D21" s="24" t="d">
+        <v>1960-06-09T00:00:00</v>
+      </c>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F21" s="21" t="inlineStr">
+        <is>
+          <t>Gilgit</t>
+        </is>
+      </c>
+      <c r="G21" s="25" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="H21" s="25" t="n">
+        <v>75.1833</v>
+      </c>
+      <c r="I21" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="J21" s="26" t="n">
+        <v>0.647976</v>
+      </c>
+      <c r="K21" s="22" t="n">
+        <v>216760</v>
+      </c>
+      <c r="L21" s="22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M21" s="21" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="15" t="inlineStr">
+        <is>
+          <t>Ngadi Chuli</t>
+        </is>
+      </c>
+      <c r="B22" s="16" t="n">
+        <v>7871</v>
+      </c>
+      <c r="C22" s="16" t="n">
+        <v>25823</v>
+      </c>
+      <c r="D22" s="18" t="d">
+        <v>1970-04-27T00:00:00</v>
+      </c>
+      <c r="E22" s="15" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F22" s="15" t="inlineStr">
+        <is>
+          <t>Gorkha</t>
+        </is>
+      </c>
+      <c r="G22" s="19" t="n">
+        <v>27.9901</v>
+      </c>
+      <c r="H22" s="19" t="n">
+        <v>84.62</v>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="J22" s="20" t="n">
+        <v>0.6198900000000001</v>
+      </c>
+      <c r="K22" s="16" t="n">
+        <v>252201</v>
+      </c>
+      <c r="L22" s="16" t="n">
+        <v>1130</v>
+      </c>
+      <c r="M22" s="15" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="inlineStr">
+        <is>
+          <t>Nanda Devi</t>
+        </is>
+      </c>
+      <c r="B23" s="22" t="n">
+        <v>7816</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <v>25643</v>
+      </c>
+      <c r="D23" s="24" t="d">
+        <v>1936-08-29T00:00:00</v>
+      </c>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F23" s="21" t="inlineStr">
+        <is>
+          <t>Joshimath</t>
+        </is>
+      </c>
+      <c r="G23" s="25" t="n">
+        <v>27.9902</v>
+      </c>
+      <c r="H23" s="25" t="n">
+        <v>79.9783</v>
+      </c>
+      <c r="I23" s="21" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="J23" s="26" t="n">
+        <v>0.8619520000000001</v>
+      </c>
+      <c r="K23" s="22" t="n">
+        <v>48202</v>
+      </c>
+      <c r="L23" s="22" t="n">
+        <v>1875</v>
+      </c>
+      <c r="M23" s="21" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="15" t="inlineStr">
+        <is>
+          <t>Masherbrum</t>
+        </is>
+      </c>
+      <c r="B24" s="16" t="n">
+        <v>7821</v>
+      </c>
+      <c r="C24" s="16" t="n">
+        <v>25659</v>
+      </c>
+      <c r="D24" s="18" t="d">
+        <v>1960-07-06T00:00:00</v>
+      </c>
+      <c r="E24" s="15" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F24" s="15" t="inlineStr">
+        <is>
+          <t>Skardu</t>
+        </is>
+      </c>
+      <c r="G24" s="19" t="n">
+        <v>27.9903</v>
+      </c>
+      <c r="H24" s="19" t="n">
+        <v>76.33329999999999</v>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="J24" s="20" t="n">
+        <v>0.919411</v>
+      </c>
+      <c r="K24" s="16" t="n">
+        <v>26023</v>
+      </c>
+      <c r="L24" s="16" t="n">
+        <v>2228</v>
+      </c>
+      <c r="M24" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="inlineStr">
+        <is>
+          <t>Nanda Kot</t>
+        </is>
+      </c>
+      <c r="B25" s="22" t="n">
+        <v>7861</v>
+      </c>
+      <c r="C25" s="22" t="n">
+        <v>25791</v>
+      </c>
+      <c r="D25" s="24" t="d">
+        <v>1931-06-02T00:00:00</v>
+      </c>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>Himalayas</t>
+        </is>
+      </c>
+      <c r="F25" s="21" t="inlineStr">
+        <is>
+          <t>Joshimath</t>
+        </is>
+      </c>
+      <c r="G25" s="25" t="n">
+        <v>27.9904</v>
+      </c>
+      <c r="H25" s="25" t="n">
+        <v>80.02500000000001</v>
+      </c>
+      <c r="I25" s="21" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="J25" s="26" t="n">
+        <v>0.590913</v>
+      </c>
+      <c r="K25" s="22" t="n">
+        <v>48202</v>
+      </c>
+      <c r="L25" s="22" t="n">
+        <v>1875</v>
+      </c>
+      <c r="M25" s="21" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="15" t="inlineStr">
+        <is>
+          <t>Rakaposhi</t>
+        </is>
+      </c>
+      <c r="B26" s="16" t="n">
+        <v>7788</v>
+      </c>
+      <c r="C26" s="16" t="n">
+        <v>25551</v>
+      </c>
+      <c r="D26" s="18" t="d">
+        <v>1958-06-25T00:00:00</v>
+      </c>
+      <c r="E26" s="15" t="inlineStr">
+        <is>
+          <t>Karakoram</t>
+        </is>
+      </c>
+      <c r="F26" s="15" t="inlineStr">
+        <is>
+          <t>Gilgit</t>
+        </is>
+      </c>
+      <c r="G26" s="19" t="n">
+        <v>27.9905</v>
+      </c>
+      <c r="H26" s="19" t="n">
+        <v>74.5167</v>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="J26" s="20" t="n">
+        <v>0.183695</v>
+      </c>
+      <c r="K26" s="16" t="n">
+        <v>216760</v>
+      </c>
+      <c r="L26" s="16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M26" s="15" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M19"/>
+  <autoFilter ref="A1:M26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/output_mult.xlsx
+++ b/test/output_mult.xlsx
@@ -9,14 +9,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mountains" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Higher than 8000" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cities" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Higher than {MAX_ALTITUDE}" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Higher than 7900" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mountains Full" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mountains'!$A$1:$J$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Higher than 8000'!$A$1:$J$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Cities'!$A$1:$D$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Higher than {MAX_ALTITUDE}'!$A$1:$J$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Higher than 7900'!$A$1:$J$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Mountains Full'!$A$1:$M$26</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/test/output_mult.xlsx
+++ b/test/output_mult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mountains" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Higher than 8000" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cities" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Higher than 7900" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mountains Full" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mountains" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Higher than 8000" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Cities" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Higher than 7900" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mountains Full" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mountains'!$A$1:$J$26</definedName>
